--- a/artfynd/A 51567-2025 artfynd.xlsx
+++ b/artfynd/A 51567-2025 artfynd.xlsx
@@ -4188,7 +4188,7 @@
         <v>130799135</v>
       </c>
       <c r="B32" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
